--- a/力扣竞赛记录 - 模板.xlsx
+++ b/力扣竞赛记录 - 模板.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5EB8D3-977F-405E-9EF9-E9C55E2B8A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA001FB4-360D-4F54-81EC-904BF6D7C00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="300" windowWidth="30936" windowHeight="17124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,20 @@
     <sheet name="竞赛模板" sheetId="40" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +92,10 @@
   </si>
   <si>
     <t>第111场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +161,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +208,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -196,27 +235,425 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -642,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFB7494-6CD6-4559-9CF5-3F515F7186CD}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -659,28 +1096,30 @@
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="13">
         <v>44465.4375</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,152 +1147,180 @@
       <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="11"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="10" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="4" t="e">
+      <c r="H12" s="10" t="e">
         <f>B12/E12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="H12:J13"/>
     <mergeCell ref="A15:I19"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A12:A13"/>
@@ -861,56 +1328,63 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="E12:F13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>"中等"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"困难"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"简单"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>"中等"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>"困难"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"简单"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>$F3="待巩固"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>$H3="待学习"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H6">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>$H4="待学习"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F6">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>$F4="待巩固"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J6">
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>AND($I3="是",$J3=2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J6">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>AND($I3="是",$J3&lt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">

--- a/力扣竞赛记录 - 模板.xlsx
+++ b/力扣竞赛记录 - 模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA001FB4-360D-4F54-81EC-904BF6D7C00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B35D37D-D76D-4A51-9600-0FE5CD2685E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="300" windowWidth="30936" windowHeight="17124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>重做次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +173,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,31 +224,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -243,400 +262,7 @@
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -1079,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFB7494-6CD6-4559-9CF5-3F515F7186CD}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1099,27 +725,28 @@
     <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="8">
         <v>44465.4375</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1150,240 +777,257 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="10" t="e">
+      <c r="H12" s="9" t="e">
         <f>B12/E12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="A15:I19"/>
-    <mergeCell ref="A14:I14"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="E12:F13"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A15:K19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"中等"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"困难"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"简单"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"中等"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"困难"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"简单"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="19" priority="11">
+  <conditionalFormatting sqref="E3:F3 E3:E6">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>$F3="待巩固"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H3">
-    <cfRule type="expression" dxfId="18" priority="10">
+  <conditionalFormatting sqref="G3:H3 G3:G6">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>$H3="待学习"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H6">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$H4="待学习"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F6">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>$F4="待巩固"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I6">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J6">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND($I3="是",$J3=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J6">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($I3="是",$J3&lt;=1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/力扣竞赛记录 - 模板.xlsx
+++ b/力扣竞赛记录 - 模板.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B35D37D-D76D-4A51-9600-0FE5CD2685E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E43AA6-398B-4DFB-9C61-54079FB71644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="300" windowWidth="30936" windowHeight="17124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待学知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,23 +87,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第111场周赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重做次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第273场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2119. 反转两次的数字</t>
+  </si>
+  <si>
+    <t>2120. 执行所有后缀指令</t>
+  </si>
+  <si>
+    <t>2121. 相同元素的间隔之和</t>
+  </si>
+  <si>
+    <t>2122. 还原原数组</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>解答错误</t>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、哈希表、前缀和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、哈希表、枚举、排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和相关操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待巩固</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +227,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,15 +254,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,40 +284,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -708,15 +769,15 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
@@ -726,25 +787,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="15" t="s">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8">
-        <v>44465.4375</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="F1" s="15">
+        <v>44556.4375</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -763,71 +824,115 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="E3" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I7" s="3"/>
@@ -846,54 +951,58 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14">
+        <v>706</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="9" t="e">
+      <c r="E12" s="14">
+        <v>5324</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="16">
         <f>B12/E12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+        <v>0.13260706235912847</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
@@ -962,6 +1071,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A15:K19"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="D12:D13"/>
@@ -970,8 +1081,6 @@
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="H12:K13"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A15:K19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
@@ -1048,6 +1157,12 @@
       <formula1>"是"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://leetcode-cn.com/problems/a-number-after-a-double-reversal/" xr:uid="{6FBEEC6A-7F3E-462D-971E-687F577EF897}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://leetcode-cn.com/problems/execution-of-all-suffix-instructions-staying-in-a-grid/" xr:uid="{75D67BF5-93BE-4C3E-BAD4-F405D5FE9CF9}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://leetcode-cn.com/problems/intervals-between-identical-elements/" xr:uid="{49297B40-A118-45EB-8436-8BBEBFCE83E6}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://leetcode-cn.com/problems/recover-the-original-array/" xr:uid="{CDD90704-51D0-498A-BCBB-4AD5F0744213}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>